--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/AION-TECH SOLUTIONS Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/AION-TECH SOLUTIONS Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>Quarterly Results of AION-TECH SOLUTIONS(in Rs. Cr.)</t>
   </si>
@@ -209,6 +209,135 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>6.49</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>7.39</t>
+  </si>
+  <si>
+    <t>7.38</t>
+  </si>
+  <si>
+    <t>6.96</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>5.59</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>5.97</t>
+  </si>
+  <si>
+    <t>9.81</t>
+  </si>
+  <si>
+    <t>7.44</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>7.52</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>10.52</t>
+  </si>
+  <si>
+    <t>11.56</t>
+  </si>
+  <si>
+    <t>12.96</t>
+  </si>
+  <si>
+    <t>10.63</t>
+  </si>
+  <si>
+    <t>13.83</t>
+  </si>
+  <si>
+    <t>15.09</t>
+  </si>
+  <si>
+    <t>15.36</t>
+  </si>
+  <si>
+    <t>12.77</t>
+  </si>
+  <si>
+    <t>21.01</t>
+  </si>
+  <si>
+    <t>20.84</t>
+  </si>
+  <si>
+    <t>20.24</t>
+  </si>
+  <si>
+    <t>13.81</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>23.26</t>
+  </si>
+  <si>
+    <t>21.94</t>
+  </si>
+  <si>
+    <t>16.45</t>
+  </si>
+  <si>
+    <t>19.30</t>
   </si>
 </sst>
 </file>
@@ -638,8 +767,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>6.49</v>
+      <c r="B2" t="s">
+        <v>65</v>
       </c>
       <c r="C2">
         <v>6.49</v>
@@ -700,8 +829,8 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>6.46</v>
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
       <c r="C3">
         <v>6.46</v>
@@ -762,8 +891,8 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>7.5</v>
+      <c r="B4" t="s">
+        <v>67</v>
       </c>
       <c r="C4">
         <v>7.5</v>
@@ -824,8 +953,8 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>7.34</v>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
       <c r="C5">
         <v>7.34</v>
@@ -886,8 +1015,8 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>7.39</v>
+      <c r="B6" t="s">
+        <v>69</v>
       </c>
       <c r="C6">
         <v>7.39</v>
@@ -948,8 +1077,8 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>7.38</v>
+      <c r="B7" t="s">
+        <v>70</v>
       </c>
       <c r="C7">
         <v>7.38</v>
@@ -1010,8 +1139,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>6.96</v>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
       <c r="C8">
         <v>6.96</v>
@@ -1072,8 +1201,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>6.29</v>
+      <c r="B9" t="s">
+        <v>72</v>
       </c>
       <c r="C9">
         <v>6.29</v>
@@ -1134,8 +1263,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>6.1</v>
+      <c r="B10" t="s">
+        <v>73</v>
       </c>
       <c r="C10">
         <v>6.1</v>
@@ -1196,8 +1325,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>6.06</v>
+      <c r="B11" t="s">
+        <v>74</v>
       </c>
       <c r="C11">
         <v>6.06</v>
@@ -1258,8 +1387,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>5.3</v>
+      <c r="B12" t="s">
+        <v>75</v>
       </c>
       <c r="C12">
         <v>5.3</v>
@@ -1320,8 +1449,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>5.59</v>
+      <c r="B13" t="s">
+        <v>76</v>
       </c>
       <c r="C13">
         <v>5.59</v>
@@ -1382,8 +1511,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>5.04</v>
+      <c r="B14" t="s">
+        <v>77</v>
       </c>
       <c r="C14">
         <v>5.04</v>
@@ -1444,8 +1573,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>5.14</v>
+      <c r="B15" t="s">
+        <v>78</v>
       </c>
       <c r="C15">
         <v>5.14</v>
@@ -1506,8 +1635,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>5.75</v>
+      <c r="B16" t="s">
+        <v>79</v>
       </c>
       <c r="C16">
         <v>5.75</v>
@@ -1568,8 +1697,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>4.96</v>
+      <c r="B17" t="s">
+        <v>80</v>
       </c>
       <c r="C17">
         <v>4.96</v>
@@ -1587,7 +1716,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="H17">
-        <v>0.246842105263158</v>
+        <v>0.25</v>
       </c>
       <c r="I17">
         <v>-0.6899999999999999</v>
@@ -1630,8 +1759,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>6.78</v>
+      <c r="B18" t="s">
+        <v>81</v>
       </c>
       <c r="C18">
         <v>6.78</v>
@@ -1664,7 +1793,7 @@
         <v>1.41</v>
       </c>
       <c r="M18">
-        <v>0.1639473684210526</v>
+        <v>0.16</v>
       </c>
       <c r="N18">
         <v>1.41</v>
@@ -1692,8 +1821,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>5.97</v>
+      <c r="B19" t="s">
+        <v>82</v>
       </c>
       <c r="C19">
         <v>5.97</v>
@@ -1711,7 +1840,7 @@
         <v>0.75</v>
       </c>
       <c r="H19">
-        <v>0.246842105263158</v>
+        <v>0.25</v>
       </c>
       <c r="I19">
         <v>0.75</v>
@@ -1726,7 +1855,7 @@
         <v>0.68</v>
       </c>
       <c r="M19">
-        <v>0.1639473684210526</v>
+        <v>0.16</v>
       </c>
       <c r="N19">
         <v>0.68</v>
@@ -1754,8 +1883,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>7.38</v>
+      <c r="B20" t="s">
+        <v>70</v>
       </c>
       <c r="C20">
         <v>7.38</v>
@@ -1816,8 +1945,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>9.81</v>
+      <c r="B21" t="s">
+        <v>83</v>
       </c>
       <c r="C21">
         <v>9.81</v>
@@ -1835,7 +1964,7 @@
         <v>1.43</v>
       </c>
       <c r="H21">
-        <v>0.246842105263158</v>
+        <v>0.25</v>
       </c>
       <c r="I21">
         <v>1.43</v>
@@ -1878,8 +2007,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>7.44</v>
+      <c r="B22" t="s">
+        <v>84</v>
       </c>
       <c r="C22">
         <v>7.44</v>
@@ -1912,7 +2041,7 @@
         <v>0.9</v>
       </c>
       <c r="M22">
-        <v>0.1639473684210526</v>
+        <v>0.16</v>
       </c>
       <c r="N22">
         <v>0.9</v>
@@ -1940,8 +2069,8 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>7.46</v>
+      <c r="B23" t="s">
+        <v>85</v>
       </c>
       <c r="C23">
         <v>7.46</v>
@@ -1974,7 +2103,7 @@
         <v>0.51</v>
       </c>
       <c r="M23">
-        <v>0.1639473684210526</v>
+        <v>0.16</v>
       </c>
       <c r="N23">
         <v>0.51</v>
@@ -2002,8 +2131,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>9.4</v>
+      <c r="B24" t="s">
+        <v>86</v>
       </c>
       <c r="C24">
         <v>9.4</v>
@@ -2064,8 +2193,8 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>6.29</v>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -2083,7 +2212,7 @@
         <v>0.25</v>
       </c>
       <c r="H25">
-        <v>0.246842105263158</v>
+        <v>0.25</v>
       </c>
       <c r="I25">
         <v>0.26</v>
@@ -2098,7 +2227,7 @@
         <v>0.18</v>
       </c>
       <c r="M25">
-        <v>0.1639473684210526</v>
+        <v>0.16</v>
       </c>
       <c r="N25">
         <v>0.18</v>
@@ -2126,8 +2255,8 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>7.52</v>
+      <c r="B26" t="s">
+        <v>87</v>
       </c>
       <c r="C26">
         <v>7.52</v>
@@ -2160,7 +2289,7 @@
         <v>0.43</v>
       </c>
       <c r="M26">
-        <v>0.1639473684210526</v>
+        <v>0.16</v>
       </c>
       <c r="N26">
         <v>0.42</v>
@@ -2188,8 +2317,8 @@
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>9.140000000000001</v>
+      <c r="B27" t="s">
+        <v>88</v>
       </c>
       <c r="C27">
         <v>9.140000000000001</v>
@@ -2207,7 +2336,7 @@
         <v>0.08</v>
       </c>
       <c r="H27">
-        <v>0.246842105263158</v>
+        <v>0.25</v>
       </c>
       <c r="I27">
         <v>0.08</v>
@@ -2222,7 +2351,7 @@
         <v>-0.02</v>
       </c>
       <c r="M27">
-        <v>0.1639473684210526</v>
+        <v>0.16</v>
       </c>
       <c r="N27">
         <v>-0.03</v>
@@ -2250,8 +2379,8 @@
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>12.23</v>
+      <c r="B28" t="s">
+        <v>89</v>
       </c>
       <c r="C28">
         <v>12.23</v>
@@ -2312,8 +2441,8 @@
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>7.15</v>
+      <c r="B29" t="s">
+        <v>90</v>
       </c>
       <c r="C29">
         <v>7.15</v>
@@ -2374,8 +2503,8 @@
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>10.52</v>
+      <c r="B30" t="s">
+        <v>91</v>
       </c>
       <c r="C30">
         <v>10.52</v>
@@ -2393,7 +2522,7 @@
         <v>0.47</v>
       </c>
       <c r="H30">
-        <v>0.246842105263158</v>
+        <v>0.25</v>
       </c>
       <c r="I30">
         <v>0.47</v>
@@ -2423,21 +2552,21 @@
         <v>0.21</v>
       </c>
       <c r="R30">
-        <v>0.1125581395348837</v>
+        <v>0.11</v>
       </c>
       <c r="S30">
         <v>0.21</v>
       </c>
       <c r="T30">
-        <v>0.1123255813953488</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <v>11.56</v>
+      <c r="B31" t="s">
+        <v>92</v>
       </c>
       <c r="C31">
         <v>11.56</v>
@@ -2498,8 +2627,8 @@
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32">
-        <v>12.96</v>
+      <c r="B32" t="s">
+        <v>93</v>
       </c>
       <c r="C32">
         <v>12.96</v>
@@ -2560,8 +2689,8 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33">
-        <v>10.63</v>
+      <c r="B33" t="s">
+        <v>94</v>
       </c>
       <c r="C33">
         <v>10.63</v>
@@ -2579,7 +2708,7 @@
         <v>-0.27</v>
       </c>
       <c r="H33">
-        <v>0.246842105263158</v>
+        <v>0.25</v>
       </c>
       <c r="I33">
         <v>-0.27</v>
@@ -2622,8 +2751,8 @@
       <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="B34">
-        <v>13.83</v>
+      <c r="B34" t="s">
+        <v>95</v>
       </c>
       <c r="C34">
         <v>13.83</v>
@@ -2684,8 +2813,8 @@
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35">
-        <v>15.09</v>
+      <c r="B35" t="s">
+        <v>96</v>
       </c>
       <c r="C35">
         <v>15.09</v>
@@ -2746,8 +2875,8 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36">
-        <v>15.36</v>
+      <c r="B36" t="s">
+        <v>97</v>
       </c>
       <c r="C36">
         <v>15.36</v>
@@ -2808,8 +2937,8 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37">
-        <v>12.77</v>
+      <c r="B37" t="s">
+        <v>98</v>
       </c>
       <c r="C37">
         <v>12.77</v>
@@ -2870,8 +2999,8 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38">
-        <v>21.01</v>
+      <c r="B38" t="s">
+        <v>99</v>
       </c>
       <c r="C38">
         <v>21.01</v>
@@ -2932,8 +3061,8 @@
       <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39">
-        <v>20.84</v>
+      <c r="B39" t="s">
+        <v>100</v>
       </c>
       <c r="C39">
         <v>20.84</v>
@@ -2994,8 +3123,8 @@
       <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="B40">
-        <v>20.24</v>
+      <c r="B40" t="s">
+        <v>101</v>
       </c>
       <c r="C40">
         <v>20.24</v>
@@ -3040,24 +3169,24 @@
         <v>34.58</v>
       </c>
       <c r="Q40">
-        <v>0.1147727272727272</v>
+        <v>0.11</v>
       </c>
       <c r="R40">
-        <v>0.1125581395348837</v>
+        <v>0.11</v>
       </c>
       <c r="S40">
-        <v>0.1145454545454545</v>
+        <v>0.11</v>
       </c>
       <c r="T40">
-        <v>0.1123255813953488</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
-        <v>13.81</v>
+      <c r="B41" t="s">
+        <v>102</v>
       </c>
       <c r="C41">
         <v>13.81</v>
@@ -3118,8 +3247,8 @@
       <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42">
-        <v>20</v>
+      <c r="B42" t="s">
+        <v>103</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3180,8 +3309,8 @@
       <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B43">
-        <v>23.26</v>
+      <c r="B43" t="s">
+        <v>104</v>
       </c>
       <c r="C43">
         <v>23.26</v>
@@ -3242,8 +3371,8 @@
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44">
-        <v>21.94</v>
+      <c r="B44" t="s">
+        <v>105</v>
       </c>
       <c r="C44">
         <v>21.94</v>
@@ -3304,8 +3433,8 @@
       <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45">
-        <v>16.45</v>
+      <c r="B45" t="s">
+        <v>106</v>
       </c>
       <c r="C45">
         <v>16.45</v>
@@ -3366,8 +3495,8 @@
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46">
-        <v>19.3</v>
+      <c r="B46" t="s">
+        <v>107</v>
       </c>
       <c r="C46">
         <v>19.3</v>
